--- a/web/simulator/input/Material.xlsx
+++ b/web/simulator/input/Material.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/benjaminkauffmann/Desktop/Azasimul/azasimul/web/simulator/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15F1C073-6907-EF47-9DB6-39BDBB25944C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76310136-1A9F-0F4A-9511-85594330EE01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11540" yWindow="500" windowWidth="26860" windowHeight="13220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Summary" sheetId="15" r:id="rId1"/>
+    <sheet name="Constants" sheetId="8" r:id="rId1"/>
     <sheet name="Casing-LiFePO4-280Ah" sheetId="12" r:id="rId2"/>
     <sheet name="BatteryPack-LiFePO4-280Ah" sheetId="13" r:id="rId3"/>
     <sheet name="BatterySystem-LiFePO4-280Ah" sheetId="14" r:id="rId4"/>
@@ -22,7 +22,7 @@
     <sheet name="_Mix--SLA" sheetId="5" r:id="rId7"/>
     <sheet name="_SolarPanels" sheetId="6" r:id="rId8"/>
     <sheet name="_Pack overhead" sheetId="7" r:id="rId9"/>
-    <sheet name="AirConsumptionPerCell" sheetId="8" r:id="rId10"/>
+    <sheet name="Feuil2" sheetId="16" r:id="rId10"/>
     <sheet name="_AirConsumption" sheetId="11" r:id="rId11"/>
     <sheet name="_(ANX) Solar resources" sheetId="10" r:id="rId12"/>
   </sheets>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="527" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="254">
   <si>
     <t>Symbol</t>
   </si>
@@ -946,6 +946,9 @@
   </si>
   <si>
     <t>Test</t>
+  </si>
+  <si>
+    <t>Simulation</t>
   </si>
 </sst>
 </file>
@@ -2076,87 +2079,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A0AE4DF-9C11-EE48-9FA1-6832832E1E5B}">
-  <dimension ref="A1:B10"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="21.5" style="154" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="154" t="s">
-        <v>241</v>
-      </c>
-      <c r="B1" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="154" t="s">
-        <v>242</v>
-      </c>
-      <c r="B2" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="154" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="154" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="38" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="155" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="154" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="154" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="154" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="154" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="154" t="s">
-        <v>250</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:G28"/>
+  <dimension ref="A1:G40"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2166,291 +2097,367 @@
     <col min="4" max="7" width="12.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B2" s="154" t="s">
+        <v>241</v>
+      </c>
+      <c r="C2" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B3" s="154" t="s">
+        <v>242</v>
+      </c>
+      <c r="C3" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B4" s="154" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B5" s="154" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="B6" s="155" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B7" s="154" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B8" s="154" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B9" s="154" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B10" s="154" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B11" s="154" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B12" s="154"/>
+    </row>
+    <row r="13" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="7"/>
-    </row>
-    <row r="2" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="62"/>
-      <c r="B2" s="62" t="s">
+      <c r="B13" s="7"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="7"/>
+    </row>
+    <row r="14" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="62"/>
+      <c r="B14" s="62" t="s">
         <v>106</v>
       </c>
-      <c r="C2" s="63">
+      <c r="C14" s="63">
         <v>26.8</v>
       </c>
-      <c r="D2" s="62" t="s">
+      <c r="D14" s="62" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="62"/>
-      <c r="B3" s="62" t="s">
-        <v>108</v>
-      </c>
-      <c r="C3" s="64">
-        <v>22400</v>
-      </c>
-      <c r="D3" s="62" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="62"/>
-      <c r="B4" s="62" t="s">
-        <v>110</v>
-      </c>
-      <c r="C4" s="65">
-        <v>0.2</v>
-      </c>
-      <c r="D4" s="62"/>
-    </row>
-    <row r="5" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="62"/>
-      <c r="B5" s="62" t="s">
-        <v>111</v>
-      </c>
-      <c r="C5" s="63">
-        <v>4</v>
-      </c>
-      <c r="D5" s="62" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="7" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="B7" s="7"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="7"/>
-    </row>
-    <row r="8" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="62"/>
-      <c r="B8" s="62" t="s">
-        <v>114</v>
-      </c>
-      <c r="C8" s="63">
-        <v>9.1</v>
-      </c>
-      <c r="D8" s="62" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="62"/>
-      <c r="B9" s="62" t="s">
-        <v>116</v>
-      </c>
-      <c r="C9" s="63">
-        <v>16.3</v>
-      </c>
-      <c r="D9" s="62" t="s">
-        <v>115</v>
-      </c>
-      <c r="G9" s="68"/>
-    </row>
-    <row r="10" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="62"/>
-      <c r="B10" s="62" t="s">
-        <v>117</v>
-      </c>
-      <c r="C10" s="69">
-        <v>0.3</v>
-      </c>
-      <c r="D10" s="62" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="62"/>
-      <c r="B11" s="62" t="s">
-        <v>118</v>
-      </c>
-      <c r="C11" s="70">
-        <f>C10*C9*C8</f>
-        <v>44.498999999999995</v>
-      </c>
-      <c r="D11" s="62" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="62"/>
-      <c r="B12" s="62" t="s">
-        <v>119</v>
-      </c>
-      <c r="C12" s="70">
-        <f>C8*C9*2</f>
-        <v>296.66000000000003</v>
-      </c>
-      <c r="D12" s="62" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="14" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="B14" s="7"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="7"/>
-    </row>
-    <row r="15" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="62"/>
       <c r="B15" s="62" t="s">
-        <v>122</v>
-      </c>
-      <c r="C15" s="69">
-        <v>30</v>
+        <v>108</v>
+      </c>
+      <c r="C15" s="64">
+        <v>22400</v>
       </c>
       <c r="D15" s="62" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="62"/>
       <c r="B16" s="62" t="s">
-        <v>124</v>
-      </c>
-      <c r="C16" s="70">
-        <f>C15*C12/1000</f>
-        <v>8.8998000000000008</v>
-      </c>
-      <c r="D16" s="62" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="18" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="B18" s="7"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="7"/>
-    </row>
-    <row r="19" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="62"/>
-      <c r="B19" s="62" t="s">
-        <v>127</v>
-      </c>
-      <c r="C19" s="70">
-        <f>C3/(C5*C2)</f>
-        <v>208.955223880597</v>
-      </c>
-      <c r="D19" s="62" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+        <v>110</v>
+      </c>
+      <c r="C16" s="65">
+        <v>0.2</v>
+      </c>
+      <c r="D16" s="62"/>
+    </row>
+    <row r="17" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="62"/>
+      <c r="B17" s="62" t="s">
+        <v>111</v>
+      </c>
+      <c r="C17" s="63">
+        <v>4</v>
+      </c>
+      <c r="D17" s="62" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="19" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="B19" s="7"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="7"/>
+    </row>
+    <row r="20" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="62"/>
       <c r="B20" s="62" t="s">
-        <v>129</v>
-      </c>
-      <c r="C20" s="70">
-        <f>C19/C4</f>
-        <v>1044.7761194029849</v>
+        <v>114</v>
+      </c>
+      <c r="C20" s="63">
+        <v>9.1</v>
       </c>
       <c r="D20" s="62" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="62"/>
       <c r="B21" s="62" t="s">
-        <v>130</v>
-      </c>
-      <c r="C21" s="70">
-        <f>C20*C16</f>
-        <v>9298.2985074626868</v>
+        <v>116</v>
+      </c>
+      <c r="C21" s="63">
+        <v>16.3</v>
       </c>
       <c r="D21" s="62" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+        <v>115</v>
+      </c>
+      <c r="G21" s="68"/>
+    </row>
+    <row r="22" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="62"/>
       <c r="B22" s="62" t="s">
-        <v>132</v>
-      </c>
-      <c r="C22" s="70">
-        <f>C21/C11</f>
-        <v>208.95522388059703</v>
+        <v>117</v>
+      </c>
+      <c r="C22" s="69">
+        <v>0.3</v>
       </c>
       <c r="D22" s="62" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="62"/>
       <c r="B23" s="62" t="s">
-        <v>134</v>
+        <v>118</v>
       </c>
       <c r="C23" s="70">
-        <f>C22*C8</f>
-        <v>1901.4925373134329</v>
+        <f>C22*C21*C20</f>
+        <v>44.498999999999995</v>
       </c>
       <c r="D23" s="62" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="62"/>
       <c r="B24" s="62" t="s">
+        <v>119</v>
+      </c>
+      <c r="C24" s="70">
+        <f>C20*C21*2</f>
+        <v>296.66000000000003</v>
+      </c>
+      <c r="D24" s="62" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="26" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="B26" s="7"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="7"/>
+    </row>
+    <row r="27" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="62"/>
+      <c r="B27" s="62" t="s">
+        <v>122</v>
+      </c>
+      <c r="C27" s="69">
+        <v>30</v>
+      </c>
+      <c r="D27" s="62" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="62"/>
+      <c r="B28" s="62" t="s">
+        <v>124</v>
+      </c>
+      <c r="C28" s="70">
+        <f>C27*C24/1000</f>
+        <v>8.8998000000000008</v>
+      </c>
+      <c r="D28" s="62" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="30" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="B30" s="7"/>
+      <c r="C30" s="11"/>
+      <c r="D30" s="7"/>
+    </row>
+    <row r="31" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="62"/>
+      <c r="B31" s="62" t="s">
+        <v>127</v>
+      </c>
+      <c r="C31" s="70">
+        <f>C15/(C17*C14)</f>
+        <v>208.955223880597</v>
+      </c>
+      <c r="D31" s="62" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="62"/>
+      <c r="B32" s="62" t="s">
+        <v>129</v>
+      </c>
+      <c r="C32" s="70">
+        <f>C31/C16</f>
+        <v>1044.7761194029849</v>
+      </c>
+      <c r="D32" s="62" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="62"/>
+      <c r="B33" s="62" t="s">
+        <v>130</v>
+      </c>
+      <c r="C33" s="70">
+        <f>C32*C28</f>
+        <v>9298.2985074626868</v>
+      </c>
+      <c r="D33" s="62" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="62"/>
+      <c r="B34" s="62" t="s">
+        <v>132</v>
+      </c>
+      <c r="C34" s="70">
+        <f>C33/C23</f>
+        <v>208.95522388059703</v>
+      </c>
+      <c r="D34" s="62" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="62"/>
+      <c r="B35" s="62" t="s">
+        <v>134</v>
+      </c>
+      <c r="C35" s="70">
+        <f>C34*C20</f>
+        <v>1901.4925373134329</v>
+      </c>
+      <c r="D35" s="62" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="62"/>
+      <c r="B36" s="62" t="s">
         <v>136</v>
       </c>
-      <c r="C24" s="71">
-        <f>C23/100000</f>
+      <c r="C36" s="71">
+        <f>C35/100000</f>
         <v>1.9014925373134327E-2</v>
       </c>
-      <c r="D24" s="62" t="s">
+      <c r="D36" s="62" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="26" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="62" t="s">
+    <row r="37" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="38" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="62" t="s">
         <v>138</v>
       </c>
-      <c r="C26" s="72">
-        <f>C21/(C9*C10)</f>
+      <c r="C38" s="72">
+        <f>C33/(C21*C22)</f>
         <v>1901.4925373134331</v>
       </c>
-      <c r="D26" s="62" t="s">
+      <c r="D38" s="62" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="73" t="s">
+    <row r="39" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="73" t="s">
         <v>139</v>
       </c>
-      <c r="C27" s="74">
-        <f>C26/100000</f>
+      <c r="C39" s="74">
+        <f>C38/100000</f>
         <v>1.9014925373134331E-2</v>
       </c>
-      <c r="D27" s="62" t="s">
+      <c r="D39" s="62" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="73" t="s">
+    <row r="40" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="73" t="s">
         <v>139</v>
       </c>
-      <c r="C28" s="72">
-        <f>C26/3600</f>
+      <c r="C40" s="72">
+        <f>C38/3600</f>
         <v>0.52819237147595366</v>
       </c>
-      <c r="D28" s="62" t="s">
+      <c r="D40" s="62" t="s">
         <v>140</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3F59635-203E-874E-9198-4B53B8F11DBF}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -3638,7 +3645,7 @@
   <dimension ref="A1:M41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:B12"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/web/simulator/input/Material.xlsx
+++ b/web/simulator/input/Material.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/benjaminkauffmann/Desktop/Azasimul/azasimul/web/simulator/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76310136-1A9F-0F4A-9511-85594330EE01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50D38C6B-1461-2E4D-9D43-CA5397926814}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11540" yWindow="500" windowWidth="26860" windowHeight="13220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Constants" sheetId="8" r:id="rId1"/>
+    <sheet name="Summary" sheetId="8" r:id="rId1"/>
     <sheet name="Casing-LiFePO4-280Ah" sheetId="12" r:id="rId2"/>
     <sheet name="BatteryPack-LiFePO4-280Ah" sheetId="13" r:id="rId3"/>
     <sheet name="BatterySystem-LiFePO4-280Ah" sheetId="14" r:id="rId4"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="221">
   <si>
     <t>Symbol</t>
   </si>
@@ -360,227 +360,10 @@
     <t>https://solargis.com/pricing/products-and-plans</t>
   </si>
   <si>
-    <t>Global constants</t>
-  </si>
-  <si>
-    <t>Faraday number</t>
-  </si>
-  <si>
-    <t>Ah/mol</t>
-  </si>
-  <si>
-    <t>Gas constant (gas volume per M)</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>cm</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>3</t>
-    </r>
-  </si>
-  <si>
-    <t>Oxygen share in air</t>
-  </si>
-  <si>
-    <t>Number of Farades per mole of oxygen</t>
-  </si>
-  <si>
-    <t>Farad</t>
-  </si>
-  <si>
-    <t>Dimensions</t>
-  </si>
-  <si>
     <t>Length</t>
   </si>
   <si>
-    <t>cm</t>
-  </si>
-  <si>
     <t>Height</t>
-  </si>
-  <si>
-    <t>Gap</t>
-  </si>
-  <si>
-    <t>Gap volume</t>
-  </si>
-  <si>
-    <t>Electrode surface area (double)</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>cm</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2</t>
-    </r>
-  </si>
-  <si>
-    <t>Power data</t>
-  </si>
-  <si>
-    <t>Current density</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>mA/cm</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2</t>
-    </r>
-  </si>
-  <si>
-    <t>Capacity demand per hour</t>
-  </si>
-  <si>
-    <t>Ah/h</t>
-  </si>
-  <si>
-    <t>Calculus</t>
-  </si>
-  <si>
-    <t>Oxygen demand per Ah</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>cm</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>/Ah</t>
-    </r>
-  </si>
-  <si>
-    <t>Air demand per Ah</t>
-  </si>
-  <si>
-    <t>Air demand per hour</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>cm</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>/h</t>
-    </r>
-  </si>
-  <si>
-    <t>Number of cells per (horizontal serial)</t>
-  </si>
-  <si>
-    <t>item/h</t>
-  </si>
-  <si>
-    <t>Length of the cells per h</t>
-  </si>
-  <si>
-    <t>cm/h</t>
-  </si>
-  <si>
-    <t>Required air flow velocity to feed the batteries</t>
-  </si>
-  <si>
-    <t>km/h</t>
-  </si>
-  <si>
-    <t>Speed of air to flush the volume</t>
-  </si>
-  <si>
-    <t>equiv</t>
-  </si>
-  <si>
-    <t>cm/s</t>
   </si>
   <si>
     <t>DataCurves</t>
@@ -950,6 +733,9 @@
   <si>
     <t>Simulation</t>
   </si>
+  <si>
+    <t>Description</t>
+  </si>
 </sst>
 </file>
 
@@ -966,7 +752,7 @@
     <numFmt numFmtId="171" formatCode="mmm\-yyyy"/>
     <numFmt numFmtId="172" formatCode="\$#,##0_);\(\$#,##0\)"/>
   </numFmts>
-  <fonts count="27" x14ac:knownFonts="1">
+  <fonts count="29" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1140,6 +926,21 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="6">
@@ -1332,7 +1133,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="156">
+  <cellXfs count="162">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1768,13 +1569,29 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="3" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="168" fontId="28" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2086,7 +1903,7 @@
   <dimension ref="A1:G40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2098,352 +1915,247 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
-        <v>253</v>
-      </c>
+      <c r="A1" s="155" t="s">
+        <v>219</v>
+      </c>
+      <c r="B1" s="156"/>
+      <c r="C1" s="157"/>
+      <c r="D1" s="158"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B2" s="154" t="s">
-        <v>241</v>
-      </c>
-      <c r="C2" t="s">
-        <v>251</v>
-      </c>
+      <c r="A2" s="158"/>
+      <c r="B2" s="159" t="s">
+        <v>207</v>
+      </c>
+      <c r="C2" s="158" t="s">
+        <v>217</v>
+      </c>
+      <c r="D2" s="158"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B3" s="154" t="s">
-        <v>242</v>
-      </c>
-      <c r="C3" t="s">
-        <v>252</v>
-      </c>
+      <c r="A3" s="158"/>
+      <c r="B3" s="159" t="s">
+        <v>208</v>
+      </c>
+      <c r="C3" s="158" t="s">
+        <v>218</v>
+      </c>
+      <c r="D3" s="158"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B4" s="154" t="s">
-        <v>243</v>
-      </c>
+      <c r="A4" s="158"/>
+      <c r="B4" s="160" t="s">
+        <v>209</v>
+      </c>
+      <c r="C4" s="160" t="s">
+        <v>220</v>
+      </c>
+      <c r="D4" s="158"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B5" s="154" t="s">
-        <v>244</v>
-      </c>
+      <c r="A5" s="158"/>
+      <c r="B5" s="160" t="s">
+        <v>210</v>
+      </c>
+      <c r="C5" s="160"/>
+      <c r="D5" s="158"/>
     </row>
     <row r="6" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="B6" s="155" t="s">
-        <v>245</v>
-      </c>
+      <c r="A6" s="158"/>
+      <c r="B6" s="161" t="s">
+        <v>211</v>
+      </c>
+      <c r="C6" s="157"/>
+      <c r="D6" s="158"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B7" s="154" t="s">
-        <v>246</v>
-      </c>
+      <c r="A7" s="158"/>
+      <c r="B7" s="160" t="s">
+        <v>212</v>
+      </c>
+      <c r="C7" s="160"/>
+      <c r="D7" s="158"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B8" s="154" t="s">
-        <v>247</v>
-      </c>
+      <c r="A8" s="158"/>
+      <c r="B8" s="160" t="s">
+        <v>213</v>
+      </c>
+      <c r="C8" s="160"/>
+      <c r="D8" s="158"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B9" s="154" t="s">
-        <v>248</v>
-      </c>
+      <c r="A9" s="158"/>
+      <c r="B9" s="160" t="s">
+        <v>214</v>
+      </c>
+      <c r="C9" s="160"/>
+      <c r="D9" s="158"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B10" s="154" t="s">
-        <v>249</v>
-      </c>
+      <c r="A10" s="158"/>
+      <c r="B10" s="159" t="s">
+        <v>215</v>
+      </c>
+      <c r="C10" s="157"/>
+      <c r="D10" s="158"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B11" s="154" t="s">
-        <v>250</v>
-      </c>
+      <c r="A11" s="158"/>
+      <c r="B11" s="159" t="s">
+        <v>216</v>
+      </c>
+      <c r="C11" s="157"/>
+      <c r="D11" s="158"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B12" s="154"/>
+      <c r="B12" s="153"/>
     </row>
     <row r="13" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="B13" s="7"/>
+      <c r="A13" s="63"/>
+      <c r="B13" s="63"/>
       <c r="C13" s="11"/>
       <c r="D13" s="7"/>
     </row>
     <row r="14" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="62"/>
-      <c r="B14" s="62" t="s">
-        <v>106</v>
-      </c>
-      <c r="C14" s="63">
-        <v>26.8</v>
-      </c>
-      <c r="D14" s="62" t="s">
-        <v>107</v>
-      </c>
+      <c r="B14" s="62"/>
+      <c r="C14" s="63"/>
+      <c r="D14" s="62"/>
     </row>
     <row r="15" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="62"/>
-      <c r="B15" s="62" t="s">
-        <v>108</v>
-      </c>
-      <c r="C15" s="64">
-        <v>22400</v>
-      </c>
-      <c r="D15" s="62" t="s">
-        <v>109</v>
-      </c>
+      <c r="B15" s="62"/>
+      <c r="C15" s="64"/>
+      <c r="D15" s="62"/>
     </row>
     <row r="16" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="62"/>
-      <c r="B16" s="62" t="s">
-        <v>110</v>
-      </c>
-      <c r="C16" s="65">
-        <v>0.2</v>
-      </c>
+      <c r="B16" s="62"/>
+      <c r="C16" s="65"/>
       <c r="D16" s="62"/>
     </row>
     <row r="17" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="62"/>
-      <c r="B17" s="62" t="s">
-        <v>111</v>
-      </c>
-      <c r="C17" s="63">
-        <v>4</v>
-      </c>
-      <c r="D17" s="62" t="s">
-        <v>112</v>
-      </c>
+      <c r="B17" s="62"/>
+      <c r="C17" s="63"/>
+      <c r="D17" s="62"/>
     </row>
     <row r="18" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="19" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="4" t="s">
-        <v>113</v>
-      </c>
+      <c r="A19" s="4"/>
       <c r="B19" s="7"/>
       <c r="C19" s="11"/>
       <c r="D19" s="7"/>
     </row>
     <row r="20" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="62"/>
-      <c r="B20" s="62" t="s">
-        <v>114</v>
-      </c>
-      <c r="C20" s="63">
-        <v>9.1</v>
-      </c>
-      <c r="D20" s="62" t="s">
-        <v>115</v>
-      </c>
+      <c r="B20" s="62"/>
+      <c r="C20" s="63"/>
+      <c r="D20" s="62"/>
     </row>
     <row r="21" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="62"/>
-      <c r="B21" s="62" t="s">
-        <v>116</v>
-      </c>
-      <c r="C21" s="63">
-        <v>16.3</v>
-      </c>
-      <c r="D21" s="62" t="s">
-        <v>115</v>
-      </c>
+      <c r="B21" s="62"/>
+      <c r="C21" s="63"/>
+      <c r="D21" s="62"/>
       <c r="G21" s="68"/>
     </row>
     <row r="22" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="62"/>
-      <c r="B22" s="62" t="s">
-        <v>117</v>
-      </c>
-      <c r="C22" s="69">
-        <v>0.3</v>
-      </c>
-      <c r="D22" s="62" t="s">
-        <v>115</v>
-      </c>
+      <c r="B22" s="62"/>
+      <c r="C22" s="63"/>
+      <c r="D22" s="62"/>
     </row>
     <row r="23" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="62"/>
-      <c r="B23" s="62" t="s">
-        <v>118</v>
-      </c>
-      <c r="C23" s="70">
-        <f>C22*C21*C20</f>
-        <v>44.498999999999995</v>
-      </c>
-      <c r="D23" s="62" t="s">
-        <v>109</v>
-      </c>
+      <c r="B23" s="62"/>
+      <c r="C23" s="70"/>
+      <c r="D23" s="62"/>
     </row>
     <row r="24" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="62"/>
-      <c r="B24" s="62" t="s">
-        <v>119</v>
-      </c>
-      <c r="C24" s="70">
-        <f>C20*C21*2</f>
-        <v>296.66000000000003</v>
-      </c>
-      <c r="D24" s="62" t="s">
-        <v>120</v>
-      </c>
+      <c r="B24" s="62"/>
+      <c r="C24" s="70"/>
+      <c r="D24" s="62"/>
     </row>
     <row r="25" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="26" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="4" t="s">
-        <v>121</v>
-      </c>
+      <c r="A26" s="4"/>
       <c r="B26" s="7"/>
       <c r="C26" s="11"/>
       <c r="D26" s="7"/>
     </row>
     <row r="27" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="62"/>
-      <c r="B27" s="62" t="s">
-        <v>122</v>
-      </c>
-      <c r="C27" s="69">
-        <v>30</v>
-      </c>
-      <c r="D27" s="62" t="s">
-        <v>123</v>
-      </c>
+      <c r="B27" s="62"/>
+      <c r="C27" s="69"/>
+      <c r="D27" s="62"/>
     </row>
     <row r="28" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="62"/>
-      <c r="B28" s="62" t="s">
-        <v>124</v>
-      </c>
-      <c r="C28" s="70">
-        <f>C27*C24/1000</f>
-        <v>8.8998000000000008</v>
-      </c>
-      <c r="D28" s="62" t="s">
-        <v>125</v>
-      </c>
+      <c r="B28" s="62"/>
+      <c r="C28" s="70"/>
+      <c r="D28" s="62"/>
     </row>
     <row r="29" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="30" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="4" t="s">
-        <v>126</v>
-      </c>
+      <c r="A30" s="4"/>
       <c r="B30" s="7"/>
       <c r="C30" s="11"/>
       <c r="D30" s="7"/>
     </row>
     <row r="31" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="62"/>
-      <c r="B31" s="62" t="s">
-        <v>127</v>
-      </c>
-      <c r="C31" s="70">
-        <f>C15/(C17*C14)</f>
-        <v>208.955223880597</v>
-      </c>
-      <c r="D31" s="62" t="s">
-        <v>128</v>
-      </c>
+      <c r="B31" s="62"/>
+      <c r="C31" s="70"/>
+      <c r="D31" s="62"/>
     </row>
     <row r="32" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="62"/>
-      <c r="B32" s="62" t="s">
-        <v>129</v>
-      </c>
-      <c r="C32" s="70">
-        <f>C31/C16</f>
-        <v>1044.7761194029849</v>
-      </c>
-      <c r="D32" s="62" t="s">
-        <v>128</v>
-      </c>
+      <c r="B32" s="62"/>
+      <c r="C32" s="70"/>
+      <c r="D32" s="62"/>
     </row>
     <row r="33" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="62"/>
-      <c r="B33" s="62" t="s">
-        <v>130</v>
-      </c>
-      <c r="C33" s="70">
-        <f>C32*C28</f>
-        <v>9298.2985074626868</v>
-      </c>
-      <c r="D33" s="62" t="s">
-        <v>131</v>
-      </c>
+      <c r="B33" s="62"/>
+      <c r="C33" s="70"/>
+      <c r="D33" s="62"/>
     </row>
     <row r="34" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="62"/>
-      <c r="B34" s="62" t="s">
-        <v>132</v>
-      </c>
-      <c r="C34" s="70">
-        <f>C33/C23</f>
-        <v>208.95522388059703</v>
-      </c>
-      <c r="D34" s="62" t="s">
-        <v>133</v>
-      </c>
+      <c r="B34" s="62"/>
+      <c r="C34" s="70"/>
+      <c r="D34" s="62"/>
     </row>
     <row r="35" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="62"/>
-      <c r="B35" s="62" t="s">
-        <v>134</v>
-      </c>
-      <c r="C35" s="70">
-        <f>C34*C20</f>
-        <v>1901.4925373134329</v>
-      </c>
-      <c r="D35" s="62" t="s">
-        <v>135</v>
-      </c>
+      <c r="B35" s="62"/>
+      <c r="C35" s="70"/>
+      <c r="D35" s="62"/>
     </row>
     <row r="36" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="62"/>
-      <c r="B36" s="62" t="s">
-        <v>136</v>
-      </c>
-      <c r="C36" s="71">
-        <f>C35/100000</f>
-        <v>1.9014925373134327E-2</v>
-      </c>
-      <c r="D36" s="62" t="s">
-        <v>137</v>
-      </c>
+      <c r="B36" s="62"/>
+      <c r="C36" s="71"/>
+      <c r="D36" s="62"/>
     </row>
     <row r="37" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="38" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="62" t="s">
-        <v>138</v>
-      </c>
-      <c r="C38" s="72">
-        <f>C33/(C21*C22)</f>
-        <v>1901.4925373134331</v>
-      </c>
-      <c r="D38" s="62" t="s">
-        <v>135</v>
-      </c>
+      <c r="B38" s="62"/>
+      <c r="C38" s="72"/>
+      <c r="D38" s="62"/>
     </row>
     <row r="39" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="73" t="s">
-        <v>139</v>
-      </c>
-      <c r="C39" s="74">
-        <f>C38/100000</f>
-        <v>1.9014925373134331E-2</v>
-      </c>
-      <c r="D39" s="62" t="s">
-        <v>137</v>
-      </c>
+      <c r="B39" s="73"/>
+      <c r="C39" s="74"/>
+      <c r="D39" s="62"/>
     </row>
     <row r="40" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="73" t="s">
-        <v>139</v>
-      </c>
-      <c r="C40" s="72">
-        <f>C38/3600</f>
-        <v>0.52819237147595366</v>
-      </c>
-      <c r="D40" s="62" t="s">
-        <v>140</v>
-      </c>
+      <c r="B40" s="73"/>
+      <c r="C40" s="72"/>
+      <c r="D40" s="62"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3186,10 +2898,10 @@
     </row>
     <row r="26" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="27" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G27" s="153" t="s">
+      <c r="G27" s="154" t="s">
         <v>58</v>
       </c>
-      <c r="H27" s="153"/>
+      <c r="H27" s="154"/>
     </row>
     <row r="28" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G28" s="39" t="s">
@@ -3293,7 +3005,7 @@
         <v>1696</v>
       </c>
       <c r="J34" s="149" t="s">
-        <v>224</v>
+        <v>190</v>
       </c>
       <c r="K34" s="39" t="s">
         <v>72</v>
@@ -3669,7 +3381,7 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>141</v>
+        <v>107</v>
       </c>
       <c r="B2" s="75"/>
       <c r="D2" s="77"/>
@@ -3685,10 +3397,10 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>142</v>
+        <v>108</v>
       </c>
       <c r="B3" s="75" t="s">
-        <v>143</v>
+        <v>109</v>
       </c>
       <c r="D3" s="77"/>
       <c r="E3" s="39"/>
@@ -3703,10 +3415,10 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>144</v>
+        <v>110</v>
       </c>
       <c r="B4" s="78" t="s">
-        <v>145</v>
+        <v>111</v>
       </c>
       <c r="D4" s="77"/>
       <c r="E4" s="39"/>
@@ -3721,10 +3433,10 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>146</v>
+        <v>112</v>
       </c>
       <c r="B5" s="75" t="s">
-        <v>228</v>
+        <v>194</v>
       </c>
       <c r="D5" s="77"/>
       <c r="E5" s="39"/>
@@ -3739,10 +3451,10 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>148</v>
+        <v>114</v>
       </c>
       <c r="B6" s="75" t="s">
-        <v>226</v>
+        <v>192</v>
       </c>
       <c r="D6" s="77"/>
       <c r="E6" s="39"/>
@@ -3757,10 +3469,10 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>239</v>
+        <v>205</v>
       </c>
       <c r="B7" s="75" t="s">
-        <v>240</v>
+        <v>206</v>
       </c>
       <c r="D7" s="77"/>
       <c r="E7" s="39"/>
@@ -3775,10 +3487,10 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>150</v>
+        <v>116</v>
       </c>
       <c r="B8" s="75" t="s">
-        <v>151</v>
+        <v>117</v>
       </c>
       <c r="D8" s="77"/>
       <c r="E8" s="39"/>
@@ -3793,10 +3505,10 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>152</v>
+        <v>118</v>
       </c>
       <c r="B9" s="75" t="s">
-        <v>153</v>
+        <v>119</v>
       </c>
       <c r="D9" s="77"/>
       <c r="E9" s="39"/>
@@ -3811,7 +3523,7 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>154</v>
+        <v>120</v>
       </c>
       <c r="B10" s="75"/>
       <c r="D10" s="77"/>
@@ -3827,7 +3539,7 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>155</v>
+        <v>121</v>
       </c>
       <c r="B11" s="52"/>
       <c r="D11" s="77"/>
@@ -3843,7 +3555,7 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>156</v>
+        <v>122</v>
       </c>
       <c r="B12" s="75"/>
       <c r="D12" s="77"/>
@@ -3911,29 +3623,29 @@
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B17" s="82" t="s">
-        <v>157</v>
+        <v>123</v>
       </c>
       <c r="C17" s="83"/>
       <c r="D17" s="84" t="s">
-        <v>159</v>
+        <v>125</v>
       </c>
       <c r="E17" s="82" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="F17" s="82" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="G17" s="82" t="s">
-        <v>234</v>
+        <v>200</v>
       </c>
       <c r="H17" s="128" t="s">
-        <v>225</v>
+        <v>191</v>
       </c>
       <c r="I17" s="128" t="s">
-        <v>228</v>
+        <v>194</v>
       </c>
       <c r="J17" s="128" t="s">
-        <v>231</v>
+        <v>197</v>
       </c>
       <c r="K17" s="120"/>
       <c r="L17" s="120"/>
@@ -3946,22 +3658,22 @@
       <c r="B18" s="75"/>
       <c r="D18" s="77"/>
       <c r="E18" s="46" t="s">
-        <v>210</v>
+        <v>176</v>
       </c>
       <c r="F18" s="46" t="s">
-        <v>210</v>
+        <v>176</v>
       </c>
       <c r="G18" s="46" t="s">
-        <v>210</v>
+        <v>176</v>
       </c>
       <c r="H18" s="130" t="s">
-        <v>210</v>
+        <v>176</v>
       </c>
       <c r="I18" s="130" t="s">
-        <v>232</v>
+        <v>198</v>
       </c>
       <c r="J18" s="130" t="s">
-        <v>232</v>
+        <v>198</v>
       </c>
       <c r="K18" s="131"/>
       <c r="L18" s="131"/>
@@ -3969,27 +3681,27 @@
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" s="80" t="s">
-        <v>161</v>
+        <v>127</v>
       </c>
       <c r="B19" s="75"/>
       <c r="D19" s="77"/>
       <c r="E19" s="76" t="s">
-        <v>216</v>
+        <v>182</v>
       </c>
       <c r="F19" s="76" t="s">
-        <v>216</v>
+        <v>182</v>
       </c>
       <c r="G19" s="76" t="s">
-        <v>216</v>
+        <v>182</v>
       </c>
       <c r="H19" s="76" t="s">
-        <v>216</v>
+        <v>182</v>
       </c>
       <c r="I19" s="130" t="s">
-        <v>216</v>
+        <v>182</v>
       </c>
       <c r="J19" s="151" t="s">
-        <v>216</v>
+        <v>182</v>
       </c>
       <c r="K19" s="2"/>
       <c r="L19" s="2"/>
@@ -4390,7 +4102,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>141</v>
+        <v>107</v>
       </c>
       <c r="B2" s="75"/>
       <c r="D2" s="77"/>
@@ -4398,77 +4110,77 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>142</v>
+        <v>108</v>
       </c>
       <c r="B3" s="75" t="s">
-        <v>143</v>
+        <v>109</v>
       </c>
       <c r="D3" s="77"/>
       <c r="E3" s="39"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>144</v>
+        <v>110</v>
       </c>
       <c r="B4" s="78" t="s">
-        <v>145</v>
+        <v>111</v>
       </c>
       <c r="D4" s="77"/>
       <c r="E4" s="39"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>146</v>
+        <v>112</v>
       </c>
       <c r="B5" s="75" t="s">
-        <v>226</v>
+        <v>192</v>
       </c>
       <c r="D5" s="77"/>
       <c r="E5" s="39"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>148</v>
+        <v>114</v>
       </c>
       <c r="B6" s="75" t="s">
-        <v>233</v>
+        <v>199</v>
       </c>
       <c r="D6" s="77"/>
       <c r="E6" s="39"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>239</v>
+        <v>205</v>
       </c>
       <c r="B7" s="75" t="s">
-        <v>240</v>
+        <v>206</v>
       </c>
       <c r="D7" s="77"/>
       <c r="E7" s="39"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>150</v>
+        <v>116</v>
       </c>
       <c r="B8" s="75" t="s">
-        <v>151</v>
+        <v>117</v>
       </c>
       <c r="D8" s="75"/>
       <c r="E8" s="39"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>152</v>
+        <v>118</v>
       </c>
       <c r="B9" s="75" t="s">
-        <v>153</v>
+        <v>119</v>
       </c>
       <c r="D9" s="77"/>
       <c r="E9" s="39"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>154</v>
+        <v>120</v>
       </c>
       <c r="B10" s="75"/>
       <c r="D10" s="77"/>
@@ -4476,7 +4188,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>155</v>
+        <v>121</v>
       </c>
       <c r="B11" s="52"/>
       <c r="D11" s="77"/>
@@ -4484,7 +4196,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>156</v>
+        <v>122</v>
       </c>
       <c r="B12" s="75"/>
       <c r="D12" s="77"/>
@@ -4512,17 +4224,17 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B17" s="82" t="s">
-        <v>157</v>
+        <v>123</v>
       </c>
       <c r="C17" s="83"/>
       <c r="D17" s="84" t="s">
-        <v>159</v>
+        <v>125</v>
       </c>
       <c r="E17" s="82" t="s">
-        <v>235</v>
+        <v>201</v>
       </c>
       <c r="F17" s="83" t="s">
-        <v>229</v>
+        <v>195</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
@@ -4532,24 +4244,24 @@
       <c r="B18" s="75"/>
       <c r="D18" s="77"/>
       <c r="E18" s="46" t="s">
-        <v>230</v>
+        <v>196</v>
       </c>
       <c r="F18" s="150" t="s">
-        <v>208</v>
+        <v>174</v>
       </c>
       <c r="G18" s="150"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="80" t="s">
-        <v>161</v>
+        <v>127</v>
       </c>
       <c r="B19" s="75"/>
       <c r="D19" s="77"/>
       <c r="E19" s="76" t="s">
-        <v>216</v>
+        <v>182</v>
       </c>
       <c r="F19" s="150" t="s">
-        <v>216</v>
+        <v>182</v>
       </c>
       <c r="G19" s="150"/>
     </row>
@@ -4765,7 +4477,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>141</v>
+        <v>107</v>
       </c>
       <c r="B2" s="75"/>
       <c r="D2" s="77"/>
@@ -4773,37 +4485,37 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>142</v>
+        <v>108</v>
       </c>
       <c r="B3" s="75" t="s">
-        <v>143</v>
+        <v>109</v>
       </c>
       <c r="D3" s="77"/>
       <c r="E3" s="39"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>144</v>
+        <v>110</v>
       </c>
       <c r="B4" s="78" t="s">
-        <v>145</v>
+        <v>111</v>
       </c>
       <c r="D4" s="77"/>
       <c r="E4" s="39"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>146</v>
+        <v>112</v>
       </c>
       <c r="B5" s="75" t="s">
-        <v>233</v>
+        <v>199</v>
       </c>
       <c r="D5" s="77"/>
       <c r="E5" s="39"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>148</v>
+        <v>114</v>
       </c>
       <c r="B6" s="75"/>
       <c r="D6" s="77"/>
@@ -4811,36 +4523,36 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>239</v>
+        <v>205</v>
       </c>
       <c r="B7" s="75" t="s">
-        <v>240</v>
+        <v>206</v>
       </c>
       <c r="D7" s="77"/>
       <c r="E7" s="39"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>150</v>
+        <v>116</v>
       </c>
       <c r="B8" s="75" t="s">
-        <v>151</v>
+        <v>117</v>
       </c>
       <c r="D8" s="77"/>
       <c r="E8" s="39"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>152</v>
+        <v>118</v>
       </c>
       <c r="B9" s="75" t="s">
-        <v>153</v>
+        <v>119</v>
       </c>
       <c r="E9" s="39"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>154</v>
+        <v>120</v>
       </c>
       <c r="B10" s="75"/>
       <c r="D10" s="77"/>
@@ -4848,7 +4560,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>155</v>
+        <v>121</v>
       </c>
       <c r="B11" s="52"/>
       <c r="D11" s="77"/>
@@ -4856,7 +4568,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>156</v>
+        <v>122</v>
       </c>
       <c r="B12" s="75"/>
       <c r="D12" s="77"/>
@@ -4884,14 +4596,14 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B17" s="82" t="s">
-        <v>157</v>
+        <v>123</v>
       </c>
       <c r="C17" s="83"/>
       <c r="D17" s="84" t="s">
-        <v>159</v>
+        <v>125</v>
       </c>
       <c r="E17" s="82" t="s">
-        <v>236</v>
+        <v>202</v>
       </c>
       <c r="F17" s="83"/>
     </row>
@@ -4902,19 +4614,19 @@
       <c r="B18" s="75"/>
       <c r="D18" s="77"/>
       <c r="E18" s="46" t="s">
-        <v>230</v>
+        <v>196</v>
       </c>
       <c r="F18" s="150"/>
       <c r="G18" s="150"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="80" t="s">
-        <v>161</v>
+        <v>127</v>
       </c>
       <c r="B19" s="75"/>
       <c r="D19" s="77"/>
       <c r="E19" s="76" t="s">
-        <v>216</v>
+        <v>182</v>
       </c>
       <c r="F19" s="150"/>
       <c r="G19" s="150"/>
@@ -5140,83 +4852,83 @@
     <row r="1" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>141</v>
+        <v>107</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>142</v>
+        <v>108</v>
       </c>
       <c r="B3" s="75" t="s">
-        <v>143</v>
+        <v>109</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>144</v>
+        <v>110</v>
       </c>
       <c r="B4" s="78" t="s">
-        <v>145</v>
+        <v>111</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>146</v>
+        <v>112</v>
       </c>
       <c r="B5" s="47" t="s">
-        <v>227</v>
+        <v>193</v>
       </c>
       <c r="M5" s="124"/>
       <c r="N5" s="126"/>
     </row>
     <row r="6" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>148</v>
+        <v>114</v>
       </c>
       <c r="B6" s="75" t="s">
-        <v>226</v>
+        <v>192</v>
       </c>
       <c r="M6" s="127"/>
       <c r="N6" s="126"/>
     </row>
     <row r="7" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>239</v>
+        <v>205</v>
       </c>
       <c r="B7" s="75" t="s">
-        <v>240</v>
+        <v>206</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>150</v>
+        <v>116</v>
       </c>
       <c r="B8" s="75" t="s">
-        <v>151</v>
+        <v>117</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>152</v>
+        <v>118</v>
       </c>
       <c r="B9" s="75" t="s">
-        <v>153</v>
+        <v>119</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>154</v>
+        <v>120</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>155</v>
+        <v>121</v>
       </c>
       <c r="B11" s="52"/>
     </row>
     <row r="12" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>156</v>
+        <v>122</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -5225,47 +4937,47 @@
     <row r="16" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="17" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="82" t="s">
-        <v>157</v>
+        <v>123</v>
       </c>
       <c r="C17" s="83"/>
       <c r="D17" s="84" t="s">
-        <v>159</v>
+        <v>125</v>
       </c>
       <c r="E17" s="119" t="s">
-        <v>188</v>
+        <v>154</v>
       </c>
       <c r="F17" s="96" t="s">
-        <v>189</v>
+        <v>155</v>
       </c>
       <c r="G17" s="82" t="s">
-        <v>190</v>
+        <v>156</v>
       </c>
       <c r="H17" s="82" t="s">
+        <v>166</v>
+      </c>
+      <c r="I17" s="119" t="s">
+        <v>157</v>
+      </c>
+      <c r="J17" s="82" t="s">
+        <v>106</v>
+      </c>
+      <c r="K17" s="82" t="s">
+        <v>105</v>
+      </c>
+      <c r="L17" s="82" t="s">
         <v>200</v>
       </c>
-      <c r="I17" s="119" t="s">
-        <v>191</v>
-      </c>
-      <c r="J17" s="82" t="s">
-        <v>116</v>
-      </c>
-      <c r="K17" s="82" t="s">
-        <v>114</v>
-      </c>
-      <c r="L17" s="82" t="s">
-        <v>234</v>
-      </c>
       <c r="M17" s="128" t="s">
-        <v>237</v>
+        <v>203</v>
       </c>
       <c r="N17" s="83" t="s">
-        <v>238</v>
+        <v>204</v>
       </c>
       <c r="O17" s="82" t="s">
-        <v>201</v>
+        <v>167</v>
       </c>
       <c r="P17" s="82" t="s">
-        <v>202</v>
+        <v>168</v>
       </c>
     </row>
     <row r="18" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -5276,7 +4988,7 @@
         <v>16</v>
       </c>
       <c r="F18" s="88" t="s">
-        <v>208</v>
+        <v>174</v>
       </c>
       <c r="G18" s="46" t="s">
         <v>18</v>
@@ -5285,16 +4997,16 @@
         <v>28</v>
       </c>
       <c r="I18" s="129" t="s">
-        <v>209</v>
+        <v>175</v>
       </c>
       <c r="J18" s="46" t="s">
-        <v>210</v>
+        <v>176</v>
       </c>
       <c r="K18" s="46" t="s">
-        <v>210</v>
+        <v>176</v>
       </c>
       <c r="L18" s="46" t="s">
-        <v>210</v>
+        <v>176</v>
       </c>
       <c r="M18" s="130" t="s">
         <v>32</v>
@@ -5311,25 +5023,25 @@
     </row>
     <row r="19" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="80" t="s">
-        <v>161</v>
+        <v>127</v>
       </c>
       <c r="E19" s="129" t="s">
-        <v>216</v>
+        <v>182</v>
       </c>
       <c r="F19" s="88" t="s">
-        <v>217</v>
+        <v>183</v>
       </c>
       <c r="G19" s="46" t="s">
-        <v>216</v>
+        <v>182</v>
       </c>
       <c r="H19" s="46" t="s">
-        <v>216</v>
+        <v>182</v>
       </c>
       <c r="I19" s="129" t="s">
-        <v>217</v>
+        <v>183</v>
       </c>
       <c r="N19" t="s">
-        <v>216</v>
+        <v>182</v>
       </c>
     </row>
     <row r="20" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -5600,95 +5312,95 @@
     <row r="1" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>141</v>
+        <v>107</v>
       </c>
     </row>
     <row r="3" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>142</v>
+        <v>108</v>
       </c>
       <c r="B3" s="75" t="s">
-        <v>143</v>
+        <v>109</v>
       </c>
     </row>
     <row r="4" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>144</v>
+        <v>110</v>
       </c>
       <c r="B4" s="78" t="s">
-        <v>145</v>
+        <v>111</v>
       </c>
     </row>
     <row r="5" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>146</v>
+        <v>112</v>
       </c>
       <c r="B5" s="75" t="s">
-        <v>147</v>
+        <v>113</v>
       </c>
       <c r="H5" s="126"/>
       <c r="K5" s="78"/>
       <c r="Q5" s="124"/>
       <c r="R5" s="124" t="s">
-        <v>166</v>
+        <v>132</v>
       </c>
       <c r="S5" s="124"/>
       <c r="T5" s="125" t="s">
-        <v>167</v>
+        <v>133</v>
       </c>
       <c r="U5" s="125"/>
     </row>
     <row r="6" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>148</v>
+        <v>114</v>
       </c>
       <c r="B6" s="94" t="s">
-        <v>168</v>
+        <v>134</v>
       </c>
       <c r="H6" s="126"/>
       <c r="K6" s="78"/>
       <c r="Q6" s="127"/>
       <c r="R6" s="127" t="s">
-        <v>169</v>
+        <v>135</v>
       </c>
       <c r="S6" s="127"/>
       <c r="T6" s="125" t="s">
-        <v>170</v>
+        <v>136</v>
       </c>
       <c r="U6" s="125"/>
     </row>
     <row r="7" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>150</v>
+        <v>116</v>
       </c>
       <c r="B7" s="94" t="s">
-        <v>171</v>
+        <v>137</v>
       </c>
     </row>
     <row r="8" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>152</v>
+        <v>118</v>
       </c>
       <c r="B8" s="94" t="s">
-        <v>153</v>
+        <v>119</v>
       </c>
     </row>
     <row r="9" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>154</v>
+        <v>120</v>
       </c>
     </row>
     <row r="10" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>155</v>
+        <v>121</v>
       </c>
       <c r="B10" s="52" t="s">
-        <v>172</v>
+        <v>138</v>
       </c>
     </row>
     <row r="11" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>156</v>
+        <v>122</v>
       </c>
     </row>
     <row r="12" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -5698,89 +5410,89 @@
     <row r="16" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="17" spans="1:31" ht="206.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="82" t="s">
-        <v>157</v>
+        <v>123</v>
       </c>
       <c r="C17" s="83"/>
       <c r="D17" s="84" t="s">
+        <v>125</v>
+      </c>
+      <c r="E17" s="82" t="s">
+        <v>154</v>
+      </c>
+      <c r="F17" s="96" t="s">
+        <v>155</v>
+      </c>
+      <c r="G17" s="82" t="s">
+        <v>156</v>
+      </c>
+      <c r="H17" s="119" t="s">
+        <v>166</v>
+      </c>
+      <c r="I17" s="82" t="s">
+        <v>169</v>
+      </c>
+      <c r="J17" s="82" t="s">
+        <v>185</v>
+      </c>
+      <c r="K17" s="82" t="s">
+        <v>185</v>
+      </c>
+      <c r="L17" s="82" t="s">
+        <v>156</v>
+      </c>
+      <c r="M17" s="119" t="s">
+        <v>157</v>
+      </c>
+      <c r="N17" s="82" t="s">
+        <v>158</v>
+      </c>
+      <c r="O17" s="82" t="s">
         <v>159</v>
       </c>
-      <c r="E17" s="82" t="s">
+      <c r="P17" s="82" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q17" s="128" t="s">
+        <v>161</v>
+      </c>
+      <c r="R17" s="128" t="s">
+        <v>162</v>
+      </c>
+      <c r="S17" s="128" t="s">
+        <v>163</v>
+      </c>
+      <c r="T17" s="120" t="s">
+        <v>164</v>
+      </c>
+      <c r="U17" s="120" t="s">
+        <v>165</v>
+      </c>
+      <c r="V17" s="82" t="s">
+        <v>167</v>
+      </c>
+      <c r="W17" s="82" t="s">
+        <v>168</v>
+      </c>
+      <c r="X17" s="96" t="s">
+        <v>186</v>
+      </c>
+      <c r="Y17" s="138" t="s">
+        <v>187</v>
+      </c>
+      <c r="Z17" s="139" t="s">
+        <v>170</v>
+      </c>
+      <c r="AA17" s="139" t="s">
+        <v>171</v>
+      </c>
+      <c r="AB17" s="139" t="s">
         <v>188</v>
       </c>
-      <c r="F17" s="96" t="s">
-        <v>189</v>
-      </c>
-      <c r="G17" s="82" t="s">
-        <v>190</v>
-      </c>
-      <c r="H17" s="119" t="s">
-        <v>200</v>
-      </c>
-      <c r="I17" s="82" t="s">
-        <v>203</v>
-      </c>
-      <c r="J17" s="82" t="s">
-        <v>219</v>
-      </c>
-      <c r="K17" s="82" t="s">
-        <v>219</v>
-      </c>
-      <c r="L17" s="82" t="s">
-        <v>190</v>
-      </c>
-      <c r="M17" s="119" t="s">
-        <v>191</v>
-      </c>
-      <c r="N17" s="82" t="s">
-        <v>192</v>
-      </c>
-      <c r="O17" s="82" t="s">
-        <v>193</v>
-      </c>
-      <c r="P17" s="82" t="s">
-        <v>194</v>
-      </c>
-      <c r="Q17" s="128" t="s">
-        <v>195</v>
-      </c>
-      <c r="R17" s="128" t="s">
-        <v>196</v>
-      </c>
-      <c r="S17" s="128" t="s">
-        <v>197</v>
-      </c>
-      <c r="T17" s="120" t="s">
-        <v>198</v>
-      </c>
-      <c r="U17" s="120" t="s">
-        <v>199</v>
-      </c>
-      <c r="V17" s="82" t="s">
-        <v>201</v>
-      </c>
-      <c r="W17" s="82" t="s">
-        <v>202</v>
-      </c>
-      <c r="X17" s="96" t="s">
-        <v>220</v>
-      </c>
-      <c r="Y17" s="138" t="s">
-        <v>221</v>
-      </c>
-      <c r="Z17" s="139" t="s">
-        <v>204</v>
-      </c>
-      <c r="AA17" s="139" t="s">
-        <v>205</v>
-      </c>
-      <c r="AB17" s="139" t="s">
-        <v>222</v>
-      </c>
       <c r="AC17" s="119" t="s">
-        <v>206</v>
+        <v>172</v>
       </c>
       <c r="AD17" s="96" t="s">
-        <v>207</v>
+        <v>173</v>
       </c>
       <c r="AE17" s="83"/>
     </row>
@@ -5792,7 +5504,7 @@
         <v>16</v>
       </c>
       <c r="F18" s="88" t="s">
-        <v>208</v>
+        <v>174</v>
       </c>
       <c r="G18" s="46" t="s">
         <v>18</v>
@@ -5813,28 +5525,28 @@
         <v>28</v>
       </c>
       <c r="M18" s="129" t="s">
-        <v>209</v>
+        <v>175</v>
       </c>
       <c r="N18" s="46" t="s">
-        <v>210</v>
+        <v>176</v>
       </c>
       <c r="O18" s="46" t="s">
-        <v>210</v>
+        <v>176</v>
       </c>
       <c r="P18" s="46" t="s">
-        <v>210</v>
+        <v>176</v>
       </c>
       <c r="Q18" s="130" t="s">
-        <v>211</v>
+        <v>177</v>
       </c>
       <c r="R18" s="130" t="s">
-        <v>212</v>
+        <v>178</v>
       </c>
       <c r="S18" s="130" t="s">
         <v>32</v>
       </c>
       <c r="T18" s="131" t="s">
-        <v>213</v>
+        <v>179</v>
       </c>
       <c r="U18" s="131" t="s">
         <v>30</v>
@@ -5846,56 +5558,56 @@
         <v>7</v>
       </c>
       <c r="Z18" s="140" t="s">
-        <v>214</v>
+        <v>180</v>
       </c>
       <c r="AA18" s="140" t="s">
-        <v>215</v>
+        <v>181</v>
       </c>
       <c r="AB18" s="140" t="s">
-        <v>187</v>
+        <v>153</v>
       </c>
       <c r="AC18" s="129" t="s">
-        <v>187</v>
+        <v>153</v>
       </c>
       <c r="AD18" s="88" t="s">
-        <v>187</v>
+        <v>153</v>
       </c>
     </row>
     <row r="19" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="80" t="s">
-        <v>161</v>
+        <v>127</v>
       </c>
       <c r="E19" s="46" t="s">
-        <v>216</v>
+        <v>182</v>
       </c>
       <c r="F19" s="88" t="s">
-        <v>217</v>
+        <v>183</v>
       </c>
       <c r="G19" s="46" t="s">
-        <v>216</v>
+        <v>182</v>
       </c>
       <c r="J19" s="46" t="s">
-        <v>216</v>
+        <v>182</v>
       </c>
       <c r="K19" s="46" t="s">
-        <v>216</v>
+        <v>182</v>
       </c>
       <c r="L19" s="46" t="s">
-        <v>216</v>
+        <v>182</v>
       </c>
       <c r="M19" s="129" t="s">
-        <v>217</v>
+        <v>183</v>
       </c>
       <c r="Q19" s="130" t="s">
-        <v>218</v>
+        <v>184</v>
       </c>
       <c r="R19" s="130" t="s">
-        <v>218</v>
+        <v>184</v>
       </c>
     </row>
     <row r="20" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="104" t="s">
-        <v>223</v>
+        <v>189</v>
       </c>
       <c r="C20" s="83"/>
       <c r="D20" s="84"/>
@@ -5937,7 +5649,7 @@
     </row>
     <row r="21" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="104" t="s">
-        <v>186</v>
+        <v>152</v>
       </c>
       <c r="C21" s="83"/>
       <c r="D21" s="84"/>
@@ -6483,7 +6195,7 @@
     </row>
     <row r="2" spans="1:32" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>165</v>
+        <v>131</v>
       </c>
       <c r="C2" s="49"/>
       <c r="D2" s="79"/>
@@ -6516,10 +6228,10 @@
     </row>
     <row r="3" spans="1:32" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>142</v>
+        <v>108</v>
       </c>
       <c r="B3" s="75" t="s">
-        <v>143</v>
+        <v>109</v>
       </c>
       <c r="C3" s="49"/>
       <c r="D3" s="79"/>
@@ -6552,10 +6264,10 @@
     </row>
     <row r="4" spans="1:32" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>144</v>
+        <v>110</v>
       </c>
       <c r="B4" s="78" t="s">
-        <v>162</v>
+        <v>128</v>
       </c>
       <c r="C4" s="49"/>
       <c r="D4" s="79"/>
@@ -6588,10 +6300,10 @@
     </row>
     <row r="5" spans="1:32" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>146</v>
+        <v>112</v>
       </c>
       <c r="B5" s="75" t="s">
-        <v>147</v>
+        <v>113</v>
       </c>
       <c r="C5" s="49"/>
       <c r="D5" s="79"/>
@@ -6614,13 +6326,13 @@
       <c r="W5" s="93"/>
       <c r="X5" s="91"/>
       <c r="Y5" s="93" t="s">
-        <v>166</v>
+        <v>132</v>
       </c>
       <c r="Z5" s="91"/>
       <c r="AA5" s="93"/>
       <c r="AB5" s="91"/>
       <c r="AC5" s="61" t="s">
-        <v>167</v>
+        <v>133</v>
       </c>
       <c r="AD5" s="61"/>
       <c r="AE5" s="49"/>
@@ -6628,10 +6340,10 @@
     </row>
     <row r="6" spans="1:32" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>148</v>
+        <v>114</v>
       </c>
       <c r="B6" s="94" t="s">
-        <v>168</v>
+        <v>134</v>
       </c>
       <c r="C6" s="49"/>
       <c r="D6" s="79"/>
@@ -6654,13 +6366,13 @@
       <c r="W6" s="95"/>
       <c r="X6" s="91"/>
       <c r="Y6" s="95" t="s">
-        <v>169</v>
+        <v>135</v>
       </c>
       <c r="Z6" s="91"/>
       <c r="AA6" s="95"/>
       <c r="AB6" s="91"/>
       <c r="AC6" s="61" t="s">
-        <v>170</v>
+        <v>136</v>
       </c>
       <c r="AD6" s="61"/>
       <c r="AE6" s="49"/>
@@ -6668,10 +6380,10 @@
     </row>
     <row r="7" spans="1:32" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>150</v>
+        <v>116</v>
       </c>
       <c r="B7" s="94" t="s">
-        <v>171</v>
+        <v>137</v>
       </c>
       <c r="C7" s="49"/>
       <c r="D7" s="79"/>
@@ -6704,10 +6416,10 @@
     </row>
     <row r="8" spans="1:32" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>152</v>
+        <v>118</v>
       </c>
       <c r="B8" s="94" t="s">
-        <v>153</v>
+        <v>119</v>
       </c>
       <c r="C8" s="49"/>
       <c r="D8" s="79"/>
@@ -6740,7 +6452,7 @@
     </row>
     <row r="9" spans="1:32" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>154</v>
+        <v>120</v>
       </c>
       <c r="C9" s="49"/>
       <c r="D9" s="79"/>
@@ -6773,10 +6485,10 @@
     </row>
     <row r="10" spans="1:32" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>155</v>
+        <v>121</v>
       </c>
       <c r="B10" s="52" t="s">
-        <v>172</v>
+        <v>138</v>
       </c>
       <c r="C10" s="49"/>
       <c r="D10" s="79"/>
@@ -6809,7 +6521,7 @@
     </row>
     <row r="11" spans="1:32" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>156</v>
+        <v>122</v>
       </c>
       <c r="C11" s="49"/>
       <c r="D11" s="79"/>
@@ -6992,66 +6704,66 @@
     </row>
     <row r="17" spans="1:32" ht="206.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="82" t="s">
-        <v>157</v>
+        <v>123</v>
       </c>
       <c r="C17" s="83"/>
       <c r="D17" s="84" t="s">
-        <v>159</v>
+        <v>125</v>
       </c>
       <c r="E17" s="96" t="s">
-        <v>173</v>
+        <v>139</v>
       </c>
       <c r="F17" s="96" t="s">
-        <v>174</v>
+        <v>140</v>
       </c>
       <c r="G17" s="96" t="s">
-        <v>175</v>
+        <v>141</v>
       </c>
       <c r="H17" s="96" t="s">
-        <v>176</v>
+        <v>142</v>
       </c>
       <c r="I17" s="96" t="s">
-        <v>177</v>
+        <v>143</v>
       </c>
       <c r="J17" s="96" t="s">
-        <v>178</v>
+        <v>144</v>
       </c>
       <c r="K17" s="96" t="s">
-        <v>179</v>
+        <v>145</v>
       </c>
       <c r="L17" s="97" t="s">
-        <v>180</v>
+        <v>146</v>
       </c>
       <c r="M17" s="83"/>
       <c r="N17" s="96" t="s">
-        <v>181</v>
+        <v>147</v>
       </c>
       <c r="O17" s="98" t="s">
-        <v>173</v>
+        <v>139</v>
       </c>
       <c r="P17" s="99"/>
       <c r="Q17" s="100" t="s">
-        <v>174</v>
+        <v>140</v>
       </c>
       <c r="R17" s="101"/>
       <c r="S17" s="100" t="s">
-        <v>182</v>
+        <v>148</v>
       </c>
       <c r="T17" s="101"/>
       <c r="U17" s="100" t="s">
-        <v>176</v>
+        <v>142</v>
       </c>
       <c r="V17" s="101"/>
       <c r="W17" s="100" t="s">
-        <v>177</v>
+        <v>143</v>
       </c>
       <c r="X17" s="101"/>
       <c r="Y17" s="100" t="s">
-        <v>178</v>
+        <v>144</v>
       </c>
       <c r="Z17" s="101"/>
       <c r="AA17" s="100" t="s">
-        <v>179</v>
+        <v>145</v>
       </c>
       <c r="AB17" s="101"/>
       <c r="AC17" s="83"/>
@@ -7076,46 +6788,46 @@
       <c r="M18" s="49"/>
       <c r="N18" s="88"/>
       <c r="O18" s="95" t="s">
-        <v>183</v>
+        <v>149</v>
       </c>
       <c r="P18" s="102" t="s">
-        <v>184</v>
+        <v>150</v>
       </c>
       <c r="Q18" s="95" t="s">
-        <v>183</v>
+        <v>149</v>
       </c>
       <c r="R18" s="102" t="s">
-        <v>184</v>
+        <v>150</v>
       </c>
       <c r="S18" s="95" t="s">
-        <v>183</v>
+        <v>149</v>
       </c>
       <c r="T18" s="102" t="s">
-        <v>184</v>
+        <v>150</v>
       </c>
       <c r="U18" s="95" t="s">
-        <v>183</v>
+        <v>149</v>
       </c>
       <c r="V18" s="103" t="s">
-        <v>184</v>
+        <v>150</v>
       </c>
       <c r="W18" s="95" t="s">
-        <v>183</v>
+        <v>149</v>
       </c>
       <c r="X18" s="103" t="s">
-        <v>184</v>
+        <v>150</v>
       </c>
       <c r="Y18" s="95" t="s">
-        <v>183</v>
+        <v>149</v>
       </c>
       <c r="Z18" s="103" t="s">
-        <v>184</v>
+        <v>150</v>
       </c>
       <c r="AA18" s="95" t="s">
-        <v>183</v>
+        <v>149</v>
       </c>
       <c r="AB18" s="103" t="s">
-        <v>184</v>
+        <v>150</v>
       </c>
       <c r="AC18" s="49"/>
       <c r="AD18" s="49"/>
@@ -7124,7 +6836,7 @@
     </row>
     <row r="19" spans="1:32" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="80" t="s">
-        <v>161</v>
+        <v>127</v>
       </c>
       <c r="C19" s="49"/>
       <c r="D19" s="79"/>
@@ -7157,7 +6869,7 @@
     </row>
     <row r="20" spans="1:32" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="104" t="s">
-        <v>185</v>
+        <v>151</v>
       </c>
       <c r="C20" s="83"/>
       <c r="D20" s="84"/>
@@ -7206,7 +6918,7 @@
     </row>
     <row r="21" spans="1:32" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="104" t="s">
-        <v>186</v>
+        <v>152</v>
       </c>
       <c r="C21" s="83"/>
       <c r="D21" s="84"/>
@@ -7244,7 +6956,7 @@
         <v>0</v>
       </c>
       <c r="C22" s="49" t="s">
-        <v>158</v>
+        <v>124</v>
       </c>
       <c r="D22" s="79">
         <v>44743</v>
@@ -9651,62 +9363,62 @@
     <row r="1" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>141</v>
+        <v>107</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>142</v>
+        <v>108</v>
       </c>
       <c r="B3" s="39" t="s">
-        <v>143</v>
+        <v>109</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>144</v>
+        <v>110</v>
       </c>
       <c r="B4" s="78" t="s">
-        <v>162</v>
+        <v>128</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>146</v>
+        <v>112</v>
       </c>
       <c r="B5" s="39" t="s">
-        <v>163</v>
+        <v>129</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>148</v>
+        <v>114</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>150</v>
+        <v>116</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>152</v>
+        <v>118</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>154</v>
+        <v>120</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>155</v>
+        <v>121</v>
       </c>
       <c r="B10" s="52"/>
     </row>
     <row r="11" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>156</v>
+        <v>122</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -9716,11 +9428,11 @@
     <row r="16" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="17" spans="1:9" ht="43" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="82" t="s">
-        <v>157</v>
+        <v>123</v>
       </c>
       <c r="C17" s="83"/>
       <c r="D17" s="84" t="s">
-        <v>159</v>
+        <v>125</v>
       </c>
       <c r="E17" s="83"/>
       <c r="F17" s="83"/>
@@ -9739,12 +9451,12 @@
     </row>
     <row r="19" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="80" t="s">
-        <v>161</v>
+        <v>127</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="44" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="80" t="s">
-        <v>164</v>
+        <v>130</v>
       </c>
       <c r="E20" s="45"/>
     </row>
@@ -10014,71 +9726,71 @@
     <row r="1" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>141</v>
+        <v>107</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>142</v>
+        <v>108</v>
       </c>
       <c r="B3" s="75" t="s">
-        <v>143</v>
+        <v>109</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>144</v>
+        <v>110</v>
       </c>
       <c r="B4" s="78" t="s">
-        <v>145</v>
+        <v>111</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>146</v>
+        <v>112</v>
       </c>
       <c r="B5" s="75" t="s">
-        <v>147</v>
+        <v>113</v>
       </c>
       <c r="D5" s="79"/>
     </row>
     <row r="6" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>148</v>
+        <v>114</v>
       </c>
       <c r="B6" s="75" t="s">
-        <v>149</v>
+        <v>115</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>150</v>
+        <v>116</v>
       </c>
       <c r="B7" s="75" t="s">
-        <v>151</v>
+        <v>117</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>152</v>
+        <v>118</v>
       </c>
       <c r="B8" s="75" t="s">
-        <v>153</v>
+        <v>119</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>154</v>
+        <v>120</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>155</v>
+        <v>121</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>156</v>
+        <v>122</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -10088,16 +9800,16 @@
     <row r="16" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="17" spans="1:5" ht="206.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="75" t="s">
-        <v>157</v>
+        <v>123</v>
       </c>
       <c r="C17" s="46" t="s">
-        <v>158</v>
+        <v>124</v>
       </c>
       <c r="D17" s="79" t="s">
-        <v>159</v>
+        <v>125</v>
       </c>
       <c r="E17" t="s">
-        <v>160</v>
+        <v>126</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -10107,7 +9819,7 @@
     </row>
     <row r="19" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="80" t="s">
-        <v>161</v>
+        <v>127</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
